--- a/src/main/resources/resource/ItemResource.xlsx
+++ b/src/main/resources/resource/ItemResource.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13800" windowHeight="5087"/>
+    <workbookView windowWidth="14015" windowHeight="5652"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
@@ -28,34 +28,67 @@
     <t>overLimit</t>
   </si>
   <si>
+    <t>position</t>
+  </si>
+  <si>
     <t>i1001</t>
   </si>
   <si>
+    <t>普通道具1</t>
+  </si>
+  <si>
+    <t>i1002</t>
+  </si>
+  <si>
+    <t>普通道具2</t>
+  </si>
+  <si>
+    <t>i1003</t>
+  </si>
+  <si>
+    <t>头盔</t>
+  </si>
+  <si>
+    <t>i1004</t>
+  </si>
+  <si>
+    <t>弯月刀</t>
+  </si>
+  <si>
+    <t>i1005</t>
+  </si>
+  <si>
+    <t>蓝宝石</t>
+  </si>
+  <si>
+    <t>i1006</t>
+  </si>
+  <si>
+    <t>红宝石</t>
+  </si>
+  <si>
+    <t>i1007</t>
+  </si>
+  <si>
     <t>红药</t>
   </si>
   <si>
-    <t>i1002</t>
+    <t>i1008</t>
   </si>
   <si>
     <t>蓝药</t>
   </si>
   <si>
-    <t>i1003</t>
-  </si>
-  <si>
-    <t>塑料头盔</t>
-  </si>
-  <si>
-    <t>i1004</t>
-  </si>
-  <si>
-    <t>红宝石</t>
-  </si>
-  <si>
-    <t>i1005</t>
-  </si>
-  <si>
-    <t>蓝宝石</t>
+    <t>i1009</t>
+  </si>
+  <si>
+    <t>绝世羽衣</t>
+  </si>
+  <si>
+    <t>i1010</t>
+  </si>
+  <si>
+    <t>极品战靴</t>
   </si>
 </sst>
 </file>
@@ -68,7 +101,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +110,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -85,49 +165,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,70 +218,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -212,17 +247,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,162 +263,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -412,12 +444,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,30 +454,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -479,6 +481,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -490,11 +516,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,165 +546,159 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -997,15 +1023,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="15.8888888888889" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1018,75 +1047,178 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
+      <c r="E2">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
         <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
         <v>3</v>
       </c>
-      <c r="D6">
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
         <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resource/ItemResource.xlsx
+++ b/src/main/resources/resource/ItemResource.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -31,6 +31,9 @@
     <t>position</t>
   </si>
   <si>
+    <t>playerType</t>
+  </si>
+  <si>
     <t>i1001</t>
   </si>
   <si>
@@ -49,12 +52,18 @@
     <t>头盔</t>
   </si>
   <si>
+    <t>p1002</t>
+  </si>
+  <si>
     <t>i1004</t>
   </si>
   <si>
     <t>弯月刀</t>
   </si>
   <si>
+    <t>p1003</t>
+  </si>
+  <si>
     <t>i1005</t>
   </si>
   <si>
@@ -85,10 +94,16 @@
     <t>绝世羽衣</t>
   </si>
   <si>
+    <t>p1001</t>
+  </si>
+  <si>
     <t>i1010</t>
   </si>
   <si>
     <t>极品战靴</t>
+  </si>
+  <si>
+    <t>p1001,p1002,p1003</t>
   </si>
 </sst>
 </file>
@@ -96,10 +111,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -110,11 +125,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -126,9 +171,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,58 +239,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -202,37 +247,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -240,8 +254,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,19 +278,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,25 +422,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,133 +440,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,6 +469,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -481,17 +522,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,17 +536,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,26 +555,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,10 +575,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -572,133 +587,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1023,18 +1038,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="15.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="13.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="24.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="26.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1049,14 +1067,17 @@
       </c>
       <c r="E1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1070,10 +1091,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1085,12 +1106,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1101,13 +1122,16 @@
       <c r="E4">
         <v>2</v>
       </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1117,14 +1141,17 @@
       </c>
       <c r="E5">
         <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1138,10 +1165,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -1155,10 +1182,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1172,10 +1199,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -1187,12 +1214,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1203,13 +1230,16 @@
       <c r="E10">
         <v>1</v>
       </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1219,6 +1249,9 @@
       </c>
       <c r="E11">
         <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resource/ItemResource.xlsx
+++ b/src/main/resources/resource/ItemResource.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14015" windowHeight="5652"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,10 +111,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -125,7 +125,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
@@ -133,23 +184,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,6 +216,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -170,104 +268,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -278,19 +278,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,25 +428,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,133 +446,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,6 +469,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -487,17 +505,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -509,33 +516,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,16 +549,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -587,133 +587,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1041,7 +1041,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>-1</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>-1</v>
@@ -1157,7 +1157,7 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <v>-1</v>
@@ -1174,7 +1174,7 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <v>-1</v>
@@ -1191,7 +1191,7 @@
         <v>3</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E8">
         <v>-1</v>
@@ -1208,7 +1208,7 @@
         <v>3</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>-1</v>

--- a/src/main/resources/resource/ItemResource.xlsx
+++ b/src/main/resources/resource/ItemResource.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>id</t>
   </si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t>p1001,p1002,p1003</t>
+  </si>
+  <si>
+    <t>i2001</t>
+  </si>
+  <si>
+    <t>铁矿石</t>
   </si>
 </sst>
 </file>
@@ -111,10 +117,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -122,27 +128,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -154,55 +139,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,45 +179,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,6 +252,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -278,187 +284,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,8 +481,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,22 +491,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,17 +541,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,25 +575,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -587,133 +593,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1038,10 +1044,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
@@ -1254,6 +1260,23 @@
         <v>29</v>
       </c>
     </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>200</v>
+      </c>
+      <c r="E12">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/src/main/resources/resource/ItemResource.xlsx
+++ b/src/main/resources/resource/ItemResource.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>id</t>
   </si>
@@ -34,79 +34,46 @@
     <t>playerType</t>
   </si>
   <si>
-    <t>i1001</t>
-  </si>
-  <si>
     <t>普通道具1</t>
   </si>
   <si>
-    <t>i1002</t>
-  </si>
-  <si>
     <t>普通道具2</t>
   </si>
   <si>
-    <t>i1003</t>
-  </si>
-  <si>
     <t>头盔</t>
   </si>
   <si>
     <t>p1002</t>
   </si>
   <si>
-    <t>i1004</t>
-  </si>
-  <si>
     <t>弯月刀</t>
   </si>
   <si>
     <t>p1003</t>
   </si>
   <si>
-    <t>i1005</t>
-  </si>
-  <si>
     <t>蓝宝石</t>
   </si>
   <si>
-    <t>i1006</t>
-  </si>
-  <si>
     <t>红宝石</t>
   </si>
   <si>
-    <t>i1007</t>
-  </si>
-  <si>
     <t>红药</t>
   </si>
   <si>
-    <t>i1008</t>
-  </si>
-  <si>
     <t>蓝药</t>
   </si>
   <si>
-    <t>i1009</t>
-  </si>
-  <si>
     <t>绝世羽衣</t>
   </si>
   <si>
     <t>p1001</t>
   </si>
   <si>
-    <t>i1010</t>
-  </si>
-  <si>
     <t>极品战靴</t>
   </si>
   <si>
     <t>p1001,p1002,p1003</t>
-  </si>
-  <si>
-    <t>i2001</t>
   </si>
   <si>
     <t>铁矿石</t>
@@ -117,10 +84,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -128,6 +95,21 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -139,32 +121,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,68 +188,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,23 +219,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,31 +251,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,151 +401,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,8 +448,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,7 +458,33 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,17 +504,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,37 +534,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,10 +548,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,16 +560,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -611,115 +578,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1047,7 +1014,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
@@ -1079,11 +1046,11 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>1001</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1096,11 +1063,11 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>8</v>
+      <c r="A3">
+        <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1113,11 +1080,11 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>10</v>
+      <c r="A4">
+        <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1129,15 +1096,15 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>13</v>
+      <c r="A5">
+        <v>1004</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1149,15 +1116,15 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>16</v>
+      <c r="A6">
+        <v>1005</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1170,11 +1137,11 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>18</v>
+      <c r="A7">
+        <v>1006</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -1187,11 +1154,11 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>20</v>
+      <c r="A8">
+        <v>1007</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1204,11 +1171,11 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>22</v>
+      <c r="A9">
+        <v>1008</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -1221,11 +1188,11 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>24</v>
+      <c r="A10">
+        <v>1009</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1237,15 +1204,15 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>27</v>
+      <c r="A11">
+        <v>1010</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1257,15 +1224,15 @@
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>30</v>
+      <c r="A12">
+        <v>2001</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>0</v>

--- a/src/main/resources/resource/ItemResource.xlsx
+++ b/src/main/resources/resource/ItemResource.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -43,13 +43,13 @@
     <t>头盔</t>
   </si>
   <si>
-    <t>p1002</t>
+    <t>1001,1002</t>
   </si>
   <si>
     <t>弯月刀</t>
   </si>
   <si>
-    <t>p1003</t>
+    <t>1001,1003</t>
   </si>
   <si>
     <t>蓝宝石</t>
@@ -67,13 +67,10 @@
     <t>绝世羽衣</t>
   </si>
   <si>
-    <t>p1001</t>
-  </si>
-  <si>
     <t>极品战靴</t>
   </si>
   <si>
-    <t>p1001,p1002,p1003</t>
+    <t>1001,1002,1003</t>
   </si>
   <si>
     <t>铁矿石</t>
@@ -86,8 +83,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -98,16 +95,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,60 +119,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,8 +142,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -197,6 +203,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -205,38 +233,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,6 +254,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -269,19 +272,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,13 +404,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,127 +428,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,15 +439,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -478,6 +466,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -485,6 +488,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,6 +516,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -518,40 +539,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -560,138 +557,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1014,7 +1012,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
@@ -1095,7 +1093,7 @@
       <c r="E4">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1115,7 +1113,7 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1203,8 +1201,8 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" t="s">
-        <v>17</v>
+      <c r="F10" s="1">
+        <v>1001</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1212,7 +1210,7 @@
         <v>1010</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1223,8 +1221,8 @@
       <c r="E11">
         <v>3</v>
       </c>
-      <c r="F11" t="s">
-        <v>19</v>
+      <c r="F11" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1232,7 +1230,7 @@
         <v>2001</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12">
         <v>0</v>

--- a/src/main/resources/resource/ItemResource.xlsx
+++ b/src/main/resources/resource/ItemResource.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="21000" windowHeight="8484"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>id</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>铁矿石</t>
+  </si>
+  <si>
+    <t>书页</t>
   </si>
 </sst>
 </file>
@@ -81,10 +84,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -92,6 +95,71 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -105,7 +173,22 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,16 +202,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,98 +234,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,19 +257,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,157 +413,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,15 +442,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -462,6 +456,65 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,59 +536,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,10 +548,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -557,133 +560,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1009,10 +1012,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
@@ -1242,6 +1245,23 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>3001</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>200</v>
+      </c>
+      <c r="E13">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/src/main/resources/resource/ItemResource.xlsx
+++ b/src/main/resources/resource/ItemResource.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8484"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,8 +86,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -98,6 +98,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -106,16 +174,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,26 +197,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -171,56 +219,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,9 +235,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,187 +251,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,6 +442,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -456,65 +465,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,16 +492,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -560,19 +560,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -581,112 +581,112 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1015,7 +1015,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="E3">
         <v>-1</v>
